--- a/aichan/548694858189702216_2021-07-18_14-56-17.xlsx
+++ b/aichan/548694858189702216_2021-07-18_14-56-17.xlsx
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6739,7 +6739,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8775,7 +8775,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9402,7 +9402,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -11143,7 +11143,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -12048,7 +12048,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -12123,7 +12123,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12332,7 +12332,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12632,7 +12632,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13142,7 +13142,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13872,7 +13872,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14010,7 +14010,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14807,7 +14807,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15808,7 +15808,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16013,7 +16013,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16526,7 +16526,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -16597,7 +16597,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17040,7 +17040,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17537,7 +17537,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17687,7 +17687,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17904,7 +17904,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17967,7 +17967,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -18046,7 +18046,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18204,7 +18204,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18405,7 +18405,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18642,7 +18642,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18879,7 +18879,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18958,7 +18958,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -19202,11 +19202,11 @@
         </is>
       </c>
       <c r="I260" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19423,7 +19423,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19849,7 +19849,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19921,7 +19921,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20142,7 +20142,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -20209,7 +20209,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20505,7 +20505,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20883,7 +20883,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20962,7 +20962,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21242,7 +21242,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21834,7 +21834,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21993,7 +21993,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22344,7 +22344,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22490,7 +22490,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22774,7 +22774,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22858,7 +22858,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22938,7 +22938,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -23084,7 +23084,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23222,7 +23222,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23451,7 +23451,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23593,7 +23593,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23871,11 +23871,11 @@
         </is>
       </c>
       <c r="I324" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23954,7 +23954,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24029,7 +24029,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -24344,7 +24344,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -24411,7 +24411,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -24565,7 +24565,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24715,7 +24715,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24782,7 +24782,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -25070,7 +25070,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25458,7 +25458,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25543,7 +25543,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25841,7 +25841,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26074,7 +26074,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -26362,11 +26362,11 @@
         </is>
       </c>
       <c r="I357" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26733,7 +26733,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -27172,7 +27172,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -27894,7 +27894,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -28131,7 +28131,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28344,11 +28344,11 @@
         </is>
       </c>
       <c r="I384" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28419,11 +28419,11 @@
         </is>
       </c>
       <c r="I385" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28708,11 +28708,11 @@
         </is>
       </c>
       <c r="I389" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28783,7 +28783,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28929,7 +28929,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29310,7 +29310,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29377,7 +29377,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29527,7 +29527,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29602,7 +29602,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29681,7 +29681,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -29902,7 +29902,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -29976,7 +29976,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -30055,7 +30055,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30122,7 +30122,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -30272,7 +30272,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30489,7 +30489,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -30560,7 +30560,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30702,7 +30702,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -30777,7 +30777,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -30919,11 +30919,11 @@
         </is>
       </c>
       <c r="I419" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -30998,7 +30998,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -31078,7 +31078,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -31224,7 +31224,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -31366,7 +31366,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -31520,7 +31520,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31670,7 +31670,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -31887,7 +31887,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -32188,11 +32188,11 @@
         </is>
       </c>
       <c r="I436" t="n">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -32693,7 +32693,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -32910,7 +32910,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -33273,7 +33273,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33348,7 +33348,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33419,7 +33419,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -33573,7 +33573,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -33644,7 +33644,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -33880,7 +33880,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -33943,7 +33943,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -34022,7 +34022,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -34168,7 +34168,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -34239,7 +34239,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -34318,7 +34318,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34610,7 +34610,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -34825,11 +34825,11 @@
         </is>
       </c>
       <c r="I472" t="n">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -35050,7 +35050,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -35117,7 +35117,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -35271,7 +35271,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -35350,7 +35350,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -35430,7 +35430,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -35501,7 +35501,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -35572,7 +35572,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35651,7 +35651,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -35726,7 +35726,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -35805,7 +35805,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -35881,7 +35881,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -35948,7 +35948,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -36027,7 +36027,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -36106,7 +36106,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -36181,7 +36181,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -36248,7 +36248,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -36387,7 +36387,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -36596,7 +36596,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36675,7 +36675,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -36742,7 +36742,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -36821,7 +36821,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -36888,7 +36888,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -36955,7 +36955,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -37123,7 +37123,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -37198,7 +37198,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -37269,7 +37269,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37348,7 +37348,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37427,7 +37427,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -37506,7 +37506,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37573,7 +37573,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -37648,7 +37648,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -37727,7 +37727,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -37806,7 +37806,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -37888,7 +37888,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -38031,7 +38031,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -38102,7 +38102,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -38177,7 +38177,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -38256,7 +38256,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -38328,7 +38328,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -38403,7 +38403,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -38549,7 +38549,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -38616,7 +38616,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -38865,7 +38865,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -38944,7 +38944,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -39015,7 +39015,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -39165,7 +39165,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -39232,7 +39232,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -39378,7 +39378,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39449,7 +39449,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -39522,7 +39522,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39660,7 +39660,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -39954,7 +39954,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -41264,7 +41264,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -41493,7 +41493,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -41572,7 +41572,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -41639,7 +41639,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -41718,7 +41718,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -41797,7 +41797,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -41860,7 +41860,7 @@
         </is>
       </c>
       <c r="I567" t="n">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="J567" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">

--- a/aichan/548694858189702216_2021-07-18_14-56-17.xlsx
+++ b/aichan/548694858189702216_2021-07-18_14-56-17.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4975686526</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:56:43</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44400.91438657408</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -603,10 +617,8 @@
           <t>4962121350</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:44:37</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44398.98931712963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -674,10 +686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:58:42</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44398.83243055556</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -748,10 +758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:05:08</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44398.62856481481</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -811,10 +819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:55:20</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44397.91342592592</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -886,10 +892,8 @@
           <t>4952993510</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:47:16</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44397.82449074074</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -959,10 +963,8 @@
           <t>4952993510</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:46:30</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44397.82395833333</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1034,10 +1036,8 @@
           <t>4951048430</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:49:06</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44397.61743055555</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1109,10 +1109,8 @@
           <t>4945494538</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-19 19:21:34</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44396.80664351852</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1172,10 +1170,8 @@
           <t>4945330841</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-19 18:58:53</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44396.7908912037</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1247,10 +1243,8 @@
           <t>4945002044</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-19 18:14:32</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44396.76009259259</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1318,10 +1312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-19 15:41:08</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44396.65356481481</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1389,10 +1381,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-19 15:03:57</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44396.62774305556</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1460,10 +1450,8 @@
           <t>4943594038</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-19 14:22:04</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44396.5986574074</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1539,10 +1527,8 @@
           <t>4943443951</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-19 14:06:19</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44396.58771990741</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1618,10 +1604,8 @@
           <t>4943443951</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-19 13:55:26</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44396.58016203704</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1697,10 +1681,8 @@
           <t>4938093164</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-19 13:10:15</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44396.54878472222</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1764,10 +1746,8 @@
           <t>4938093164</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-19 13:05:48</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44396.54569444444</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1839,10 +1819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-19 12:53:33</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44396.5371875</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1906,10 +1884,8 @@
           <t>4943051843</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-19 12:52:48</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44396.53666666667</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
@@ -1973,10 +1949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-19 12:19:45</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44396.51371527778</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
@@ -2044,10 +2018,8 @@
           <t>4938093164</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-19 12:17:47</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44396.51234953704</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2111,10 +2083,8 @@
           <t>4938093164</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-19 12:12:16</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44396.50851851852</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2186,10 +2156,8 @@
           <t>4942696669</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-19 12:04:35</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44396.50318287037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2257,10 +2225,8 @@
           <t>4942554356</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-19 12:04:17</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44396.50297453703</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2328,10 +2294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:59:32</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44396.49967592592</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2407,10 +2371,8 @@
           <t>4942554356</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:43:37</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44396.48862268519</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2474,10 +2436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:28:39</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44396.47822916666</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -2537,10 +2497,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:04:19</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44396.46133101852</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2604,10 +2562,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:03:03</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44396.46045138889</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2671,10 +2627,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:00:40</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44396.4587962963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2742,10 +2696,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:57:04</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44396.4562962963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2809,10 +2761,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:55:29</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44396.45519675926</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2876,10 +2826,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:53:38</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44396.45391203704</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2947,10 +2895,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:49:45</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44396.45121527778</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3014,10 +2960,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:44:32</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44396.44759259259</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3081,10 +3025,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:41:59</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44396.44582175926</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3148,10 +3090,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:40:11</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44396.44457175926</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3219,10 +3159,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:39:09</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44396.44385416667</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3286,10 +3224,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:36:48</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44396.44222222222</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3357,10 +3293,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:36:31</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44396.44202546297</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3424,10 +3358,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:35:00</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44396.44097222222</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3491,10 +3423,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:33:22</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44396.43983796296</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3562,10 +3492,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:33:17</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44396.43978009259</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3629,10 +3557,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:31:37</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44396.43862268519</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3719,10 +3645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:30:21</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44396.43774305555</v>
       </c>
       <c r="I47" t="n">
         <v>6</v>
@@ -3786,10 +3710,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:16:27</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44396.42809027778</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3857,10 +3779,8 @@
           <t>4938093164</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:13:11</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44396.42582175926</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3924,10 +3844,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:08:34</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44396.42261574074</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3995,10 +3913,8 @@
           <t>4941922359</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-19 09:49:08</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44396.40912037037</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4066,10 +3982,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-19 09:38:04</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44396.40143518519</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4164,10 +4078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-19 08:34:30</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44396.35729166667</v>
       </c>
       <c r="I53" t="n">
         <v>10</v>
@@ -4227,10 +4139,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-19 01:18:49</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44396.0547337963</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4298,10 +4208,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:53:22</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44396.03706018518</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4369,10 +4277,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:51:37</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44396.0358449074</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4440,10 +4346,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:48:34</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44396.03372685185</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4511,10 +4415,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:48:03</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44396.03336805556</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4582,10 +4484,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:47:13</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44396.03278935186</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4649,10 +4549,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:47:09</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44396.03274305556</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4720,10 +4618,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:46:10</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44396.03206018519</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4787,10 +4683,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:44:52</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44396.03115740741</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4858,10 +4752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:41:49</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44396.02903935185</v>
       </c>
       <c r="I63" t="n">
         <v>7</v>
@@ -4925,10 +4817,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:39:29</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44396.02741898148</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -4992,10 +4882,8 @@
           <t>4938093164</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:37:33</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44396.02607638889</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5067,10 +4955,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:34:24</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44396.02388888889</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5138,10 +5024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:31:03</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44396.0215625</v>
       </c>
       <c r="I67" t="n">
         <v>11</v>
@@ -5205,10 +5089,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:29:20</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44396.02037037037</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5272,10 +5154,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:23:18</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44396.01618055555</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5343,10 +5223,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:21:38</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44396.01502314815</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5422,10 +5300,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:21:17</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44396.01478009259</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5501,10 +5377,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:19:10</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44396.01331018518</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5572,10 +5446,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:15:10</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44396.01053240741</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5640,10 +5512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:13:19</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44396.00924768519</v>
       </c>
       <c r="I74" t="n">
         <v>15</v>
@@ -5707,10 +5577,8 @@
           <t>4938489492</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:12:54</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44396.00895833333</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -5774,10 +5642,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:09:03</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44396.00628472222</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -5860,10 +5726,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:05:20</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44396.0037037037</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -5939,10 +5803,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:00:56</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44396.00064814815</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6010,10 +5872,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:58:48</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44395.99916666667</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6081,10 +5941,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:57:38</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44395.99835648148</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6153,10 +6011,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:50:25</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44395.99334490741</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
@@ -6232,10 +6088,8 @@
           <t>4940219913</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:41:46</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44395.98733796296</v>
       </c>
       <c r="I82" t="n">
         <v>4</v>
@@ -6303,10 +6157,8 @@
           <t>4936982839</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:40:15</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44395.98628472222</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6374,10 +6226,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:39:18</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44395.985625</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6453,10 +6303,8 @@
           <t>4937002005</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:39:03</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44395.98545138889</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6524,10 +6372,8 @@
           <t>4940199000</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:38:48</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44395.98527777778</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6595,10 +6441,8 @@
           <t>4940183604</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:36:36</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44395.98375</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6666,10 +6510,8 @@
           <t>4940168343</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:34:29</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44395.98228009259</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
@@ -6733,10 +6575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:33:09</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44395.98135416667</v>
       </c>
       <c r="I89" t="n">
         <v>16</v>
@@ -6800,10 +6640,8 @@
           <t>4937067695</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:25:00</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44395.97569444445</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6868,10 +6706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:09:36</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44395.965</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -6939,10 +6775,8 @@
           <t>4939716083</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-18 22:36:02</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44395.94168981481</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7006,10 +6840,8 @@
           <t>4939633553</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-18 22:26:26</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44395.93502314815</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7073,10 +6905,8 @@
           <t>4937570275</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-18 22:25:50</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44395.93460648148</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7148,10 +6978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-18 21:52:15</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44395.91128472222</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7215,10 +7043,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-18 21:25:48</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44395.89291666666</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7286,10 +7112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-18 21:03:47</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44395.87762731482</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -7357,10 +7181,8 @@
           <t>4938979598</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-18 21:03:11</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44395.87721064815</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7428,10 +7250,8 @@
           <t>4938980565</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-18 21:02:07</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44395.87646990741</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7501,10 +7321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:59:40</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44395.87476851852</v>
       </c>
       <c r="I100" t="n">
         <v>7</v>
@@ -7580,10 +7398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:59:29</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44395.87464120371</v>
       </c>
       <c r="I101" t="n">
         <v>7</v>
@@ -7659,10 +7475,8 @@
           <t>4938857908</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:45:38</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44395.86502314815</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7738,10 +7552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:37:46</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44395.85956018518</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7813,10 +7625,8 @@
           <t>4938799167</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:37:31</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44395.85938657408</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7907,10 +7717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:37:24</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44395.85930555555</v>
       </c>
       <c r="I105" t="n">
         <v>5</v>
@@ -7970,10 +7778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:29:13</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44395.85362268519</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8045,10 +7851,8 @@
           <t>4936982839</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:07:03</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44395.83822916666</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8112,10 +7916,8 @@
           <t>4938554140</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-18 20:02:14</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44395.83488425926</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8183,10 +7985,8 @@
           <t>4938489492</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:53:26</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44395.82877314815</v>
       </c>
       <c r="I109" t="n">
         <v>7</v>
@@ -8254,10 +8054,8 @@
           <t>4938446073</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:45:48</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44395.82347222222</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8317,10 +8115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:42:36</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44395.82125</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8392,10 +8188,8 @@
           <t>4938407681</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:41:15</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44395.8203125</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8463,10 +8257,8 @@
           <t>4938369180</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:35:53</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44395.81658564815</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8540,10 +8332,8 @@
           <t>4938356975</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:33:51</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44395.81517361111</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8617,10 +8407,8 @@
           <t>4938339869</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:31:51</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44395.81378472222</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8694,10 +8482,8 @@
           <t>4938306487</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:26:07</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44395.80980324074</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8769,10 +8555,8 @@
           <t>4936600976</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:16:43</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44395.80327546296</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -8836,10 +8620,8 @@
           <t>4936719613</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:01:28</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44395.79268518519</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8903,10 +8685,8 @@
           <t>4938093164</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:56:38</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44395.7893287037</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -8974,10 +8754,8 @@
           <t>4938083309</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:54:30</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44395.78784722222</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9045,10 +8823,8 @@
           <t>4938052873</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:50:07</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44395.78480324074</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9108,10 +8884,8 @@
           <t>4938046647</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:49:08</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44395.78412037037</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9179,10 +8953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:44:05</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44395.78061342592</v>
       </c>
       <c r="I123" t="n">
         <v>9</v>
@@ -9254,10 +9026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:44:01</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44395.78056712963</v>
       </c>
       <c r="I124" t="n">
         <v>6</v>
@@ -9329,10 +9099,8 @@
           <t>4936633632</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:43:54</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44395.78048611111</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9392,10 +9160,8 @@
           <t>4938015044</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:43:53</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44395.78047453704</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9459,10 +9225,8 @@
           <t>4936810450</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:43:13</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44395.78001157408</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9538,10 +9302,8 @@
           <t>4937989864</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:41:42</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44395.77895833334</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9617,10 +9379,8 @@
           <t>4936854864</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:32:34</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44395.77261574074</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9684,10 +9444,8 @@
           <t>4936854864</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:30:47</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44395.77137731481</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9759,10 +9517,8 @@
           <t>4937857528</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:22:08</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44395.76537037037</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -9826,10 +9582,8 @@
           <t>4937818132</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:16:34</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44395.76150462963</v>
       </c>
       <c r="I132" t="n">
         <v>2</v>
@@ -9905,10 +9659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:15:11</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44395.76054398148</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -9976,10 +9728,8 @@
           <t>4937789050</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:12:48</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44395.75888888889</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10043,10 +9793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:07:08</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44395.7549537037</v>
       </c>
       <c r="I135" t="n">
         <v>9</v>
@@ -10122,10 +9870,8 @@
           <t>4936802111</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:06:59</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44395.75484953704</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10201,10 +9947,8 @@
           <t>4937750659</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:06:18</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44395.754375</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10268,10 +10012,8 @@
           <t>4937706644</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:00:31</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44395.75035879629</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10331,10 +10073,8 @@
           <t>4936633632</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:59:12</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44395.74944444445</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10402,10 +10142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:51:15</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44395.74392361111</v>
       </c>
       <c r="I140" t="n">
         <v>12</v>
@@ -10473,10 +10211,8 @@
           <t>4937570275</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:39:56</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44395.73606481482</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10544,10 +10280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:39:03</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44395.73545138889</v>
       </c>
       <c r="I142" t="n">
         <v>6</v>
@@ -10615,10 +10349,8 @@
           <t>4937538129</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:36:18</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44395.73354166667</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10693,10 +10425,8 @@
           <t>4937143892</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:35:33</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44395.73302083334</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10772,10 +10502,8 @@
           <t>4937271218</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:31:47</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44395.7304050926</v>
       </c>
       <c r="I145" t="n">
         <v>2</v>
@@ -10843,10 +10571,8 @@
           <t>4937496377</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:29:02</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44395.72849537037</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -10922,10 +10648,8 @@
           <t>4937486663</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:28:00</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44395.72777777778</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -10991,10 +10715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:26:27</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44395.72670138889</v>
       </c>
       <c r="I148" t="n">
         <v>11</v>
@@ -11058,10 +10780,8 @@
           <t>4937457266</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:23:38</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44395.72474537037</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11137,10 +10857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:23:17</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44395.72450231481</v>
       </c>
       <c r="I150" t="n">
         <v>27</v>
@@ -11208,10 +10926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:23:05</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44395.72436342593</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11287,10 +11003,8 @@
           <t>4937404354</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:20:31</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44395.72258101852</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11366,10 +11080,8 @@
           <t>4937427711</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:19:07</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44395.7216087963</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11437,10 +11149,8 @@
           <t>4937143892</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:18:47</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44395.72137731482</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11516,10 +11226,8 @@
           <t>4937404711</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:15:25</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44395.71903935185</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11583,10 +11291,8 @@
           <t>4937404354</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:15:16</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44395.71893518518</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11662,10 +11368,8 @@
           <t>4937397590</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:14:29</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44395.71839120371</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
@@ -11734,10 +11438,8 @@
           <t>4937143892</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:12:27</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44395.71697916667</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11813,10 +11515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:11:32</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44395.71634259259</v>
       </c>
       <c r="I159" t="n">
         <v>8</v>
@@ -11892,10 +11592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:04:57</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44395.71177083333</v>
       </c>
       <c r="I160" t="n">
         <v>13</v>
@@ -11963,10 +11661,8 @@
           <t>4936851274</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:03:11</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44395.71054398148</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12038,10 +11734,8 @@
           <t>4937324525</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:02:56</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44395.71037037037</v>
       </c>
       <c r="I162" t="n">
         <v>4</v>
@@ -12113,10 +11807,8 @@
           <t>4937318979</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:02:26</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44395.71002314815</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12184,10 +11876,8 @@
           <t>4937271218</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:01:00</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44395.70902777778</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12251,10 +11941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:00:47</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44395.70887731481</v>
       </c>
       <c r="I165" t="n">
         <v>10</v>
@@ -12322,10 +12010,8 @@
           <t>4937313257</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:00:44</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44395.70884259259</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12401,10 +12087,8 @@
           <t>4937303825</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:00:05</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44395.70839120371</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12468,10 +12152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:59:51</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44395.70822916667</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12543,10 +12225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:59:30</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44395.70798611111</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -12622,10 +12302,8 @@
           <t>4937302045</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:59:09</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44395.70774305556</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12693,10 +12371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:57:47</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44395.70679398148</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12772,10 +12448,8 @@
           <t>4936936100</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:57:27</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44395.7065625</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12839,10 +12513,8 @@
           <t>4937296349</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:57:24</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44395.70652777778</v>
       </c>
       <c r="I173" t="n">
         <v>2</v>
@@ -12918,10 +12590,8 @@
           <t>4936936100</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:57:06</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44395.70631944444</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -12994,10 +12664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:55:23</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44395.70512731482</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13065,10 +12733,8 @@
           <t>4937273532</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:54:46</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44395.70469907407</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13132,10 +12798,8 @@
           <t>4937271218</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:53:34</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44395.70386574074</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13203,10 +12867,8 @@
           <t>4937264520</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:53:13</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44395.70362268519</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13278,10 +12940,8 @@
           <t>4936839599</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:53:04</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44395.70351851852</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13353,10 +13013,8 @@
           <t>4937143892</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:52:57</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44395.7034375</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13432,10 +13090,8 @@
           <t>4936928691</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:52:50</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44395.70335648148</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13499,10 +13155,8 @@
           <t>4936936100</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:52:37</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44395.70320601852</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13566,10 +13220,8 @@
           <t>4936943737</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:51:20</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44395.70231481481</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13641,10 +13293,8 @@
           <t>4937059993</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:50:38</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44395.70182870371</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13716,10 +13366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:49:58</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44395.70136574074</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13791,10 +13439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:49:51</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44395.70128472222</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13862,10 +13508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:49:24</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44395.70097222222</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -13929,10 +13573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:48:47</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44395.70054398148</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14000,10 +13642,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:48:15</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44395.70017361111</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14063,10 +13703,8 @@
           <t>4936943737</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:47:34</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44395.69969907407</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14142,10 +13780,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:47:25</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44395.6995949074</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14213,10 +13849,8 @@
           <t>4937230872</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:46:32</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44395.69898148148</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14276,10 +13910,8 @@
           <t>4937219055</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:45:40</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44395.69837962963</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14339,10 +13971,8 @@
           <t>4937215368</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:43:52</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44395.69712962963</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14418,10 +14048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:43:12</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44395.69666666666</v>
       </c>
       <c r="I195" t="n">
         <v>7</v>
@@ -14489,10 +14117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:42:55</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44395.69646990741</v>
       </c>
       <c r="I196" t="n">
         <v>2</v>
@@ -14560,10 +14186,8 @@
           <t>4937210709</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:42:51</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44395.69642361111</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14639,10 +14263,8 @@
           <t>4937008536</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:41:32</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44395.69550925926</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14718,10 +14340,8 @@
           <t>4937059993</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:41:10</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44395.69525462963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14797,10 +14417,8 @@
           <t>4937113857</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:40:45</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44395.69496527778</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14868,10 +14486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:39:49</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44395.69431712963</v>
       </c>
       <c r="I201" t="n">
         <v>8</v>
@@ -14935,10 +14551,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:38:52</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44395.69365740741</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15006,10 +14620,8 @@
           <t>4937059993</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:36:51</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44395.69225694444</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15086,10 +14698,8 @@
           <t>4937143892</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:35:52</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44395.69157407407</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15165,10 +14775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:35:16</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44395.6911574074</v>
       </c>
       <c r="I205" t="n">
         <v>18</v>
@@ -15232,10 +14840,8 @@
           <t>4936869129</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:34:09</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44395.69038194444</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15299,10 +14905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:33:22</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44395.68983796296</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15376,10 +14980,8 @@
           <t>4937143892</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:33:20</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44395.68981481482</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15455,10 +15057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:30:23</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44395.6877662037</v>
       </c>
       <c r="I209" t="n">
         <v>4</v>
@@ -15526,10 +15126,8 @@
           <t>4937131436</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:30:11</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44395.68762731482</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15589,10 +15187,8 @@
           <t>4937123630</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:29:00</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44395.68680555555</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15656,10 +15252,8 @@
           <t>4937067695</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:28:50</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44395.68668981481</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15735,10 +15329,8 @@
           <t>4937118749</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:28:47</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44395.68665509259</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15798,10 +15390,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:28:30</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44395.68645833333</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15869,10 +15459,8 @@
           <t>4937113857</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:28:18</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44395.68631944444</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15940,10 +15528,8 @@
           <t>4937117671</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:28:13</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44395.68626157408</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16003,10 +15589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:28:00</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44395.68611111111</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16073,10 +15657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:27:58</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44395.68608796296</v>
       </c>
       <c r="I218" t="n">
         <v>18</v>
@@ -16144,10 +15726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:27:50</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44395.68599537037</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16215,10 +15795,8 @@
           <t>4937101203</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:24:46</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44395.68386574074</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16291,10 +15869,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:24:18</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44395.68354166667</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16370,10 +15946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:24:03</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44395.68336805556</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16441,10 +16015,8 @@
           <t>4937095021</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:23:52</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44395.68324074074</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16516,10 +16088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:22:41</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44395.68241898148</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16587,10 +16157,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:22:36</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44395.68236111111</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16667,10 +16235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:22:28</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44395.68226851852</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16742,10 +16308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:21:31</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44395.68160879629</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -16813,10 +16377,8 @@
           <t>4937069392</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:21:09</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44395.68135416666</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -16884,10 +16446,8 @@
           <t>4937067695</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:20:14</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44395.68071759259</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -16951,10 +16511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:19:27</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44395.68017361111</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17030,10 +16588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:19:25</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44395.68015046296</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17097,10 +16653,8 @@
           <t>4937059993</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:18:50</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44395.67974537037</v>
       </c>
       <c r="I232" t="n">
         <v>7</v>
@@ -17164,10 +16718,8 @@
           <t>4937058377</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:18:00</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44395.67916666667</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17243,10 +16795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:17:28</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44395.6787962963</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17314,10 +16864,8 @@
           <t>4937052205</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:17:16</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44395.67865740741</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17385,10 +16933,8 @@
           <t>4937051439</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:16:51</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44395.67836805555</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17460,10 +17006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:16:22</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44395.67803240741</v>
       </c>
       <c r="I237" t="n">
         <v>5</v>
@@ -17527,10 +17071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:16:06</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44395.67784722222</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17598,10 +17140,8 @@
           <t>4937044007</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:15:47</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44395.67762731481</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -17677,10 +17217,8 @@
           <t>4937042505</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:15:01</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44395.67709490741</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17752,10 +17290,8 @@
           <t>4936863347</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:13:52</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44395.6762962963</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17823,10 +17359,8 @@
           <t>4937022998</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:12:22</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44395.67525462963</v>
       </c>
       <c r="I242" t="n">
         <v>3</v>
@@ -17894,10 +17428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:11:59</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44395.67498842593</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -17957,10 +17489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:11:15</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44395.67447916666</v>
       </c>
       <c r="I244" t="n">
         <v>33</v>
@@ -18036,10 +17566,8 @@
           <t>4936802111</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:10:59</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44395.67429398148</v>
       </c>
       <c r="I245" t="n">
         <v>3</v>
@@ -18115,10 +17643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:10:51</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44395.67420138889</v>
       </c>
       <c r="I246" t="n">
         <v>7</v>
@@ -18194,10 +17720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:10:22</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44395.67386574074</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18261,10 +17785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:10:08</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44395.6737037037</v>
       </c>
       <c r="I248" t="n">
         <v>2</v>
@@ -18332,10 +17854,8 @@
           <t>4936982839</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:10:02</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44395.67363425926</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18395,10 +17915,8 @@
           <t>4937008662</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:09:59</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44395.67359953704</v>
       </c>
       <c r="I250" t="n">
         <v>2</v>
@@ -18474,10 +17992,8 @@
           <t>4937008536</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:09:55</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44395.67355324074</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18553,10 +18069,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:09:54</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44395.67354166666</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18632,10 +18146,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:09:53</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44395.67353009259</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18711,10 +18223,8 @@
           <t>4937007451</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:09:20</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44395.67314814815</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18790,10 +18300,8 @@
           <t>4937007417</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:09:19</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44395.67313657407</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18869,10 +18377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:08:55</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44395.67285879629</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -18948,10 +18454,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:08:44</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44395.67273148148</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19027,10 +18531,8 @@
           <t>4937002132</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:08:02</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44395.67224537037</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19106,10 +18608,8 @@
           <t>4937002005</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:07:59</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44395.67221064815</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19196,10 +18696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:07:47</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44395.67207175926</v>
       </c>
       <c r="I260" t="n">
         <v>157</v>
@@ -19263,10 +18761,8 @@
           <t>4937001367</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:07:38</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44395.67196759259</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19342,10 +18838,8 @@
           <t>4937000492</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:07:12</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44395.67166666667</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19413,10 +18907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:06:44</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44395.67134259259</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19484,10 +18976,8 @@
           <t>4936798864</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:06:18</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44395.67104166667</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19555,10 +19045,8 @@
           <t>4936864822</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:05:58</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44395.67081018518</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19630,10 +19118,8 @@
           <t>4936982839</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:05:04</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44395.67018518518</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19693,10 +19179,8 @@
           <t>4936978207</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:04:24</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44395.66972222222</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19764,10 +19248,8 @@
           <t>4936978082</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:04:20</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44395.66967592593</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19839,10 +19321,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:04:07</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44395.66952546296</v>
       </c>
       <c r="I269" t="n">
         <v>2</v>
@@ -19911,10 +19391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:03:53</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44395.66936342593</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19986,10 +19464,8 @@
           <t>4936973294</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:03:34</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44395.66914351852</v>
       </c>
       <c r="I271" t="n">
         <v>4</v>
@@ -20061,10 +19537,8 @@
           <t>4936798864</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:03:11</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44395.66887731481</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20132,10 +19606,8 @@
           <t>4936967777</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:02:26</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44395.66835648148</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20199,10 +19671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:02:17</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44395.66825231481</v>
       </c>
       <c r="I274" t="n">
         <v>5</v>
@@ -20274,10 +19744,8 @@
           <t>4936959807</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:01:52</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44395.66796296297</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20349,10 +19817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:01:49</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44395.66792824074</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20428,10 +19894,8 @@
           <t>4936929315</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:01:41</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44395.66783564815</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20495,10 +19959,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:01:09</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44395.66746527778</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20577,10 +20039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:00:44</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44395.66717592593</v>
       </c>
       <c r="I279" t="n">
         <v>25</v>
@@ -20648,10 +20108,8 @@
           <t>4936960769</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:00:28</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44395.66699074074</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20727,10 +20185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:00:05</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44395.66672453703</v>
       </c>
       <c r="I281" t="n">
         <v>9</v>
@@ -20794,10 +20250,8 @@
           <t>4936960039</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:00:05</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44395.66672453703</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20873,10 +20327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:59:36</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44395.66638888889</v>
       </c>
       <c r="I283" t="n">
         <v>4</v>
@@ -20952,10 +20404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:59:32</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44395.66634259259</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21019,10 +20469,8 @@
           <t>4936951663</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:59:27</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44395.66628472223</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21090,10 +20538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:59:17</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44395.66616898148</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21157,10 +20603,8 @@
           <t>4936943737</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:58:52</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44395.66587962963</v>
       </c>
       <c r="I287" t="n">
         <v>13</v>
@@ -21232,10 +20676,8 @@
           <t>4936946560</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:58:14</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44395.66543981482</v>
       </c>
       <c r="I288" t="n">
         <v>3</v>
@@ -21299,10 +20741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:57:44</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44395.66509259259</v>
       </c>
       <c r="I289" t="n">
         <v>25</v>
@@ -21374,10 +20814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:57:10</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44395.66469907408</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21449,10 +20887,8 @@
           <t>4936936100</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:56:41</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44395.66436342592</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21532,10 +20968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:56:39</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44395.66434027778</v>
       </c>
       <c r="I292" t="n">
         <v>3</v>
@@ -21599,10 +21033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:56:36</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44395.66430555555</v>
       </c>
       <c r="I293" t="n">
         <v>17</v>
@@ -21666,10 +21098,8 @@
           <t>4936929315</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:56:36</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44395.66430555555</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21745,10 +21175,8 @@
           <t>4936928691</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:56:17</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44395.66408564815</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21824,10 +21252,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:56:07</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44395.66396990741</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21903,10 +21329,8 @@
           <t>4936923415</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:55:19</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44395.66341435185</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -21983,10 +21407,8 @@
           <t>4936923276</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:55:14</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44395.66335648148</v>
       </c>
       <c r="I298" t="n">
         <v>5</v>
@@ -22054,10 +21476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:54:47</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44395.66304398148</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -22129,10 +21549,8 @@
           <t>4936925684</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:54:44</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44395.66300925926</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22200,10 +21618,8 @@
           <t>4936919749</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:54:33</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44395.66288194444</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22263,10 +21679,8 @@
           <t>4936798864</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:53:58</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44395.66247685185</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22334,10 +21748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:52:29</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44395.66144675926</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22401,10 +21813,8 @@
           <t>4936906200</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:51:35</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44395.66082175926</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22480,10 +21890,8 @@
           <t>4936798864</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:51:17</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44395.66061342593</v>
       </c>
       <c r="I305" t="n">
         <v>3</v>
@@ -22551,10 +21959,8 @@
           <t>4936854864</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:51:07</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44395.66049768519</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22626,10 +22032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:49:59</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44395.65971064815</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22693,10 +22097,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:49:09</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44395.65913194444</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -22764,10 +22166,8 @@
           <t>4936887594</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:48:06</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44395.65840277778</v>
       </c>
       <c r="I309" t="n">
         <v>2</v>
@@ -22848,10 +22248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:48:05</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44395.6583912037</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22928,10 +22326,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:47:55</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44395.65827546296</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23007,10 +22403,8 @@
           <t>4936878918</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:47:55</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44395.65827546296</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23074,10 +22468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:47:05</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44395.65769675926</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23145,10 +22537,8 @@
           <t>4936880277</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:46:46</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44395.65747685185</v>
       </c>
       <c r="I314" t="n">
         <v>5</v>
@@ -23212,10 +22602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:46:24</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44395.65722222222</v>
       </c>
       <c r="I315" t="n">
         <v>13</v>
@@ -23291,10 +22679,8 @@
           <t>4936869129</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:46:07</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44395.65702546296</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23370,10 +22756,8 @@
           <t>4936864822</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:45:50</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44395.6568287037</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23441,10 +22825,8 @@
           <t>4936864781</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:45:49</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44395.65681712963</v>
       </c>
       <c r="I318" t="n">
         <v>6</v>
@@ -23512,10 +22894,8 @@
           <t>4936872726</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:45:35</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44395.65665509259</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23583,10 +22963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:45:25</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44395.65653935185</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23654,10 +23032,8 @@
           <t>4936863347</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:45:05</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44395.65630787037</v>
       </c>
       <c r="I321" t="n">
         <v>7</v>
@@ -23725,10 +23101,8 @@
           <t>4936848490</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:45:02</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44395.65627314815</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23796,10 +23170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:44:59</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44395.65623842592</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -23865,10 +23237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:44:37</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44395.6559837963</v>
       </c>
       <c r="I324" t="n">
         <v>62</v>
@@ -23944,10 +23314,8 @@
           <t>4936870722</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:44:33</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44395.6559375</v>
       </c>
       <c r="I325" t="n">
         <v>2</v>
@@ -24019,10 +23387,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:44:11</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44395.65568287037</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24090,10 +23456,8 @@
           <t>4936865567</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:44:11</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44395.65568287037</v>
       </c>
       <c r="I327" t="n">
         <v>4</v>
@@ -24176,10 +23540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:44:01</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44395.65556712963</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24255,10 +23617,8 @@
           <t>4936859663</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:44:01</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44395.65556712963</v>
       </c>
       <c r="I329" t="n">
         <v>9</v>
@@ -24334,10 +23694,8 @@
           <t>4936854864</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:43:49</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44395.65542824074</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24401,10 +23759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:43:13</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44395.65501157408</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24480,10 +23836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:43:07</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44395.65494212963</v>
       </c>
       <c r="I332" t="n">
         <v>2</v>
@@ -24555,10 +23909,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:42:59</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44395.65484953704</v>
       </c>
       <c r="I333" t="n">
         <v>3</v>
@@ -24626,10 +23978,8 @@
           <t>4936848490</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:42:36</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44395.65458333334</v>
       </c>
       <c r="I334" t="n">
         <v>3</v>
@@ -24705,10 +24055,8 @@
           <t>4936856812</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:42:32</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44395.65453703704</v>
       </c>
       <c r="I335" t="n">
         <v>5</v>
@@ -24772,10 +24120,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:42:11</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44395.65429398148</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24839,10 +24185,8 @@
           <t>4936856044</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:42:09</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44395.65427083334</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24910,10 +24254,8 @@
           <t>4936851274</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:41:55</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44395.6541087963</v>
       </c>
       <c r="I338" t="n">
         <v>3</v>
@@ -24985,10 +24327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:41:30</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44395.65381944444</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25060,10 +24400,8 @@
           <t>4936845966</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:41:19</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44395.65369212963</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25131,10 +24469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:41:09</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44395.65357638889</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25210,10 +24546,8 @@
           <t>4936839599</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:41:00</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44395.65347222222</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25285,10 +24619,8 @@
           <t>4936845323</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:40:58</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44395.65344907407</v>
       </c>
       <c r="I343" t="n">
         <v>7</v>
@@ -25369,10 +24701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:40:32</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44395.65314814815</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25448,10 +24778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:40:02</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44395.65280092593</v>
       </c>
       <c r="I345" t="n">
         <v>16</v>
@@ -25533,10 +24861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:39:40</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44395.6525462963</v>
       </c>
       <c r="I346" t="n">
         <v>16</v>
@@ -25600,10 +24926,8 @@
           <t>4936832586</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:39:33</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44395.65246527778</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25679,10 +25003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:39:20</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44395.65231481481</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25750,10 +25072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:38:42</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44395.651875</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25831,10 +25151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:38:26</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44395.65168981482</v>
       </c>
       <c r="I350" t="n">
         <v>12</v>
@@ -25910,10 +25228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:38:01</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44395.65140046296</v>
       </c>
       <c r="I351" t="n">
         <v>13</v>
@@ -25989,10 +25305,8 @@
           <t>4936827740</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:37:49</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44395.65126157407</v>
       </c>
       <c r="I352" t="n">
         <v>3</v>
@@ -26064,10 +25378,8 @@
           <t>4936818746</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:37:34</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44395.65108796296</v>
       </c>
       <c r="I353" t="n">
         <v>3</v>
@@ -26135,10 +25447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:37:20</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44395.65092592593</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26206,10 +25516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:37:04</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44395.65074074074</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26281,10 +25589,8 @@
           <t>4936703494</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:37:02</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44395.65071759259</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26356,10 +25662,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:36:56</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44395.65064814815</v>
       </c>
       <c r="I357" t="n">
         <v>6</v>
@@ -26427,10 +25731,8 @@
           <t>4936816987</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:36:40</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44395.65046296296</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26506,10 +25808,8 @@
           <t>4936825356</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:36:37</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44395.65042824074</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26577,10 +25877,8 @@
           <t>4936815662</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:35:59</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44395.64998842592</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26644,10 +25942,8 @@
           <t>4936813377</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:35:36</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44395.64972222222</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26723,10 +26019,8 @@
           <t>4936804601</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:35:26</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44395.64960648148</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26794,10 +26088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:35:20</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44395.64953703704</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26865,10 +26157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:35:10</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44395.64942129629</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26945,10 +26235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:35:08</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44395.64939814815</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27016,10 +26304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:34:45</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44395.64913194445</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27083,10 +26369,8 @@
           <t>4936803218</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:34:44</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44395.64912037037</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27162,10 +26446,8 @@
           <t>4936811703</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:34:44</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44395.64912037037</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27237,10 +26519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:34:09</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44395.64871527778</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27312,10 +26592,8 @@
           <t>4936802111</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:34:08</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44395.6487037037</v>
       </c>
       <c r="I370" t="n">
         <v>34</v>
@@ -27383,10 +26661,8 @@
           <t>4936810450</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:34:06</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44395.64868055555</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27450,10 +26726,8 @@
           <t>4936806224</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:33:42</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44395.64840277778</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27525,10 +26799,8 @@
           <t>4936798864</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:33:16</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44395.64810185185</v>
       </c>
       <c r="I373" t="n">
         <v>9</v>
@@ -27596,10 +26868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:33:12</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44395.64805555555</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27667,10 +26937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:33:11</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44395.64804398148</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27742,10 +27010,8 @@
           <t>4936805094</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:33:06</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44395.64798611111</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27809,10 +27075,8 @@
           <t>4936800018</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:33:03</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44395.64795138889</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27884,10 +27148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:32:37</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44395.64765046296</v>
       </c>
       <c r="I378" t="n">
         <v>8</v>
@@ -27963,10 +27225,8 @@
           <t>4936789201</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:32:36</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44395.64763888889</v>
       </c>
       <c r="I379" t="n">
         <v>4</v>
@@ -28042,10 +27302,8 @@
           <t>4936784548</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:30:59</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44395.64651620371</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28121,10 +27379,8 @@
           <t>4936706327</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:30:51</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44395.64642361111</v>
       </c>
       <c r="I381" t="n">
         <v>4</v>
@@ -28200,10 +27456,8 @@
           <t>4936774185</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:29:52</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44395.64574074074</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28271,10 +27525,8 @@
           <t>4936769792</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:28:28</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44395.64476851852</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28338,10 +27590,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:28:08</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44395.64453703703</v>
       </c>
       <c r="I384" t="n">
         <v>5</v>
@@ -28413,10 +27663,8 @@
           <t>4936767371</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:27:14</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44395.64391203703</v>
       </c>
       <c r="I385" t="n">
         <v>65</v>
@@ -28476,10 +27724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:27:13</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44395.64390046296</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28543,10 +27789,8 @@
           <t>4936757317</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:26:06</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44395.643125</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28616,10 +27860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:26:04</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44395.64310185185</v>
       </c>
       <c r="I388" t="n">
         <v>15</v>
@@ -28702,10 +27944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:25:09</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44395.64246527778</v>
       </c>
       <c r="I389" t="n">
         <v>442</v>
@@ -28773,10 +28013,8 @@
           <t>4936749783</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:25:06</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44395.64243055556</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28852,10 +28090,8 @@
           <t>4936703494</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:24:39</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44395.64211805556</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -28919,10 +28155,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:24:04</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44395.64171296296</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28998,10 +28232,8 @@
           <t>4936712959</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:24:03</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44395.64170138889</v>
       </c>
       <c r="I393" t="n">
         <v>4</v>
@@ -29073,10 +28305,8 @@
           <t>4936750678</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:23:48</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44395.64152777778</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29158,10 +28388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:23:32</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44395.64134259259</v>
       </c>
       <c r="I395" t="n">
         <v>40</v>
@@ -29225,10 +28453,8 @@
           <t>4936746514</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:23:24</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44395.64125</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29300,10 +28526,8 @@
           <t>4936746468</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:23:22</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44395.64122685185</v>
       </c>
       <c r="I397" t="n">
         <v>2</v>
@@ -29367,10 +28591,8 @@
           <t>4936741600</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:22:57</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44395.6409375</v>
       </c>
       <c r="I398" t="n">
         <v>2</v>
@@ -29446,10 +28668,8 @@
           <t>4936745556</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:22:56</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44395.64092592592</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29517,10 +28737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:22:48</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44395.64083333333</v>
       </c>
       <c r="I400" t="n">
         <v>71</v>
@@ -29592,10 +28810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:22:45</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44395.64079861111</v>
       </c>
       <c r="I401" t="n">
         <v>2</v>
@@ -29671,10 +28887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:22:16</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44395.64046296296</v>
       </c>
       <c r="I402" t="n">
         <v>5</v>
@@ -29738,10 +28952,8 @@
           <t>4936734121</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:22:08</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44395.64037037037</v>
       </c>
       <c r="I403" t="n">
         <v>3</v>
@@ -29813,10 +29025,8 @@
           <t>4936735950</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:21:17</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44395.63978009259</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29892,10 +29102,8 @@
           <t>4936735326</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:20:57</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44395.63954861111</v>
       </c>
       <c r="I405" t="n">
         <v>6</v>
@@ -29966,10 +29174,8 @@
           <t>4936727898</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:20:55</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44395.63952546296</v>
       </c>
       <c r="I406" t="n">
         <v>4</v>
@@ -30045,10 +29251,8 @@
           <t>4936727723</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:20:49</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44395.63945601852</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30112,10 +29316,8 @@
           <t>4936731627</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:20:48</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44395.63944444444</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30187,10 +29389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:20:25</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44395.63917824074</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30262,10 +29462,8 @@
           <t>4936726581</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:20:11</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44395.63901620371</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30337,10 +29535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:20:05</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44395.63894675926</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30404,10 +29600,8 @@
           <t>4936712959</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:19:52</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44395.6387962963</v>
       </c>
       <c r="I412" t="n">
         <v>20</v>
@@ -30479,10 +29673,8 @@
           <t>4936719613</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:19:44</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44395.63870370371</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30550,10 +29742,8 @@
           <t>4936719386</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:19:37</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44395.63862268518</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30625,10 +29815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:19:08</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44395.63828703704</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30692,10 +29880,8 @@
           <t>4936695739</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:19:02</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44395.63821759259</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30767,10 +29953,8 @@
           <t>4936717457</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:18:38</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44395.63793981481</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -30846,10 +30030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:18:19</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44395.6377199074</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -30913,10 +30095,8 @@
           <t>4936712959</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:18:10</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44395.63761574074</v>
       </c>
       <c r="I419" t="n">
         <v>30</v>
@@ -30988,10 +30168,8 @@
           <t>4936712912</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:18:09</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44395.63760416667</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
@@ -31068,10 +30246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:17:59</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44395.63748842593</v>
       </c>
       <c r="I421" t="n">
         <v>5</v>
@@ -31139,10 +30315,8 @@
           <t>4936682412</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:17:40</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44395.63726851852</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31214,10 +30388,8 @@
           <t>4936715093</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:17:22</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44395.63706018519</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31285,10 +30457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:16:40</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44395.63657407407</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31356,10 +30526,8 @@
           <t>4936695739</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:16:32</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44395.63648148148</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31435,10 +30603,8 @@
           <t>4936703494</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:16:32</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44395.63648148148</v>
       </c>
       <c r="I426" t="n">
         <v>2</v>
@@ -31510,10 +30676,8 @@
           <t>4936706851</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:16:28</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44395.63643518519</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31585,10 +30749,8 @@
           <t>4936699408</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:16:14</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44395.63627314815</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31660,10 +30822,8 @@
           <t>4936706327</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:16:14</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44395.63627314815</v>
       </c>
       <c r="I429" t="n">
         <v>2</v>
@@ -31731,10 +30891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:16:07</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44395.63619212963</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31798,10 +30956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:16:05</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44395.63616898148</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31877,10 +31033,8 @@
           <t>4936699092</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:16:04</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44395.63615740741</v>
       </c>
       <c r="I432" t="n">
         <v>12</v>
@@ -31956,10 +31110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:16:02</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44395.63613425926</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32027,10 +31179,8 @@
           <t>4936698791</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:15:53</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44395.6360300926</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32098,10 +31248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:15:28</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44395.63574074074</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32182,10 +31330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:15:12</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44395.63555555556</v>
       </c>
       <c r="I436" t="n">
         <v>1074</v>
@@ -32257,10 +31403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:14:54</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44395.63534722223</v>
       </c>
       <c r="I437" t="n">
         <v>15</v>
@@ -32328,10 +31472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:14:49</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44395.63528935185</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32403,10 +31545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:14:41</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44395.63519675926</v>
       </c>
       <c r="I439" t="n">
         <v>10</v>
@@ -32474,10 +31614,8 @@
           <t>4936689431</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:14:30</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44395.63506944444</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32541,10 +31679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:14:22</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44395.63497685185</v>
       </c>
       <c r="I441" t="n">
         <v>3</v>
@@ -32616,10 +31752,8 @@
           <t>4936637917</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:14:21</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44395.63496527778</v>
       </c>
       <c r="I442" t="n">
         <v>6</v>
@@ -32683,10 +31817,8 @@
           <t>4936695739</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:14:15</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44395.63489583333</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32758,10 +31890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:13:57</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44395.6346875</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -32833,10 +31963,8 @@
           <t>4936683569</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:13:46</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44395.63456018519</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -32900,10 +32028,8 @@
           <t>4936687834</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:13:38</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44395.63446759259</v>
       </c>
       <c r="I446" t="n">
         <v>25</v>
@@ -32967,10 +32093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:13:25</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44395.63431712963</v>
       </c>
       <c r="I447" t="n">
         <v>2</v>
@@ -33042,10 +32166,8 @@
           <t>4936683670</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:13:06</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44395.63409722222</v>
       </c>
       <c r="I448" t="n">
         <v>3</v>
@@ -33109,10 +32231,8 @@
           <t>4936683569</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:13:02</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44395.63405092592</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -33184,10 +32304,8 @@
           <t>4936682412</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:12:23</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44395.63359953704</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33263,10 +32381,8 @@
           <t>4936681923</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:12:06</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44395.63340277778</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33338,10 +32454,8 @@
           <t>4936681681</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:11:58</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44395.63331018519</v>
       </c>
       <c r="I452" t="n">
         <v>9</v>
@@ -33409,10 +32523,8 @@
           <t>4936677490</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:11:39</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44395.63309027778</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33484,10 +32596,8 @@
           <t>4936657532</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:11:11</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44395.6327662037</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33563,10 +32673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:10:38</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44395.63238425926</v>
       </c>
       <c r="I455" t="n">
         <v>8</v>
@@ -33634,10 +32742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:10:32</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44395.63231481481</v>
       </c>
       <c r="I456" t="n">
         <v>5</v>
@@ -33724,10 +32830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:10:29</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44395.63228009259</v>
       </c>
       <c r="I457" t="n">
         <v>7</v>
@@ -33803,10 +32907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:10:18</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44395.63215277778</v>
       </c>
       <c r="I458" t="n">
         <v>1</v>
@@ -33870,10 +32972,8 @@
           <t>4936633632</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:10:07</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44395.63202546296</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33933,10 +33033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:09:59</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44395.63193287037</v>
       </c>
       <c r="I460" t="n">
         <v>2</v>
@@ -34012,10 +33110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:09:51</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44395.63184027778</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -34083,10 +33179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:09:33</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44395.63163194444</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -34158,10 +33252,8 @@
           <t>4936659612</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:09:18</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44395.63145833334</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34229,10 +33321,8 @@
           <t>4936666895</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:09:17</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44395.63144675926</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34308,10 +33398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:09:00</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44395.63125</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34387,10 +33475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:08:52</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44395.63115740741</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34466,10 +33552,8 @@
           <t>4936662046</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:08:47</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44395.63109953704</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34533,10 +33617,8 @@
           <t>4936641658</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:08:47</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44395.63109953704</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34600,10 +33682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:08:26</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44395.63085648148</v>
       </c>
       <c r="I469" t="n">
         <v>11</v>
@@ -34675,10 +33755,8 @@
           <t>4936657532</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:08:13</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44395.63070601852</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34742,10 +33820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:08:04</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44395.63060185185</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34819,10 +33895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:07:53</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44395.63047453704</v>
       </c>
       <c r="I472" t="n">
         <v>832</v>
@@ -34898,10 +33972,8 @@
           <t>4936656693</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:07:49</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44395.63042824074</v>
       </c>
       <c r="I473" t="n">
         <v>9</v>
@@ -34969,10 +34041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:07:29</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44395.63019675926</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35040,10 +34110,8 @@
           <t>4936649072</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:07:15</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44395.63003472222</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -35107,10 +34175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:07:12</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44395.63</v>
       </c>
       <c r="I476" t="n">
         <v>40</v>
@@ -35186,10 +34252,8 @@
           <t>4936644644</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:06:44</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44395.62967592593</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35261,10 +34325,8 @@
           <t>4936635100</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:06:24</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44395.62944444444</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35340,10 +34402,8 @@
           <t>4936651336</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:06:15</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44395.62934027778</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35420,10 +34480,8 @@
           <t>4936633632</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:05:33</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44395.62885416667</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35491,10 +34549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:05:30</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44395.62881944444</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35562,10 +34618,8 @@
           <t>4936639879</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:05:26</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44395.62877314815</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35641,10 +34695,8 @@
           <t>4936645439</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:05:19</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44395.62869212963</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35716,10 +34768,8 @@
           <t>4936641658</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:05:08</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44395.62856481481</v>
       </c>
       <c r="I484" t="n">
         <v>2</v>
@@ -35795,10 +34845,8 @@
           <t>4936641514</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:05:04</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44395.62851851852</v>
       </c>
       <c r="I485" t="n">
         <v>2</v>
@@ -35871,10 +34919,8 @@
           <t>4936641127</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:51</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44395.62836805556</v>
       </c>
       <c r="I486" t="n">
         <v>2</v>
@@ -35938,10 +34984,8 @@
           <t>4936638816</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:50</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44395.62835648148</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -36017,10 +35061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:47</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44395.62832175926</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36096,10 +35138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:47</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44395.62832175926</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36171,10 +35211,8 @@
           <t>4936634429</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:47</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44395.62832175926</v>
       </c>
       <c r="I490" t="n">
         <v>4</v>
@@ -36238,10 +35276,8 @@
           <t>4936638538</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:40</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44395.62824074074</v>
       </c>
       <c r="I491" t="n">
         <v>2</v>
@@ -36305,10 +35341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:22</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44395.62803240741</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36377,10 +35411,8 @@
           <t>4936633632</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:21</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44395.62802083333</v>
       </c>
       <c r="I493" t="n">
         <v>4</v>
@@ -36440,10 +35472,8 @@
           <t>4936637917</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:19</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44395.62799768519</v>
       </c>
       <c r="I494" t="n">
         <v>26</v>
@@ -36519,10 +35549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:17</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44395.62797453703</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36586,10 +35614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:17</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44395.62797453703</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36665,10 +35691,8 @@
           <t>4936637798</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:15</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44395.62795138889</v>
       </c>
       <c r="I497" t="n">
         <v>7</v>
@@ -36732,10 +35756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:04:13</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44395.62792824074</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36811,10 +35833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:03:32</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44395.6274537037</v>
       </c>
       <c r="I499" t="n">
         <v>31</v>
@@ -36878,10 +35898,8 @@
           <t>4936635100</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:03:30</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44395.62743055556</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36945,10 +35963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:03:16</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44395.62726851852</v>
       </c>
       <c r="I501" t="n">
         <v>1</v>
@@ -37020,10 +36036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:03:15</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44395.62725694444</v>
       </c>
       <c r="I502" t="n">
         <v>8</v>
@@ -37113,10 +36127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:03:08</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44395.62717592593</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37188,10 +36200,8 @@
           <t>4936635264</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:02:49</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44395.62695601852</v>
       </c>
       <c r="I504" t="n">
         <v>5</v>
@@ -37259,10 +36269,8 @@
           <t>4936635100</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:02:44</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44395.62689814815</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37338,10 +36346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:02:43</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44395.62688657407</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37417,10 +36423,8 @@
           <t>4936626543</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:02:27</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44395.62670138889</v>
       </c>
       <c r="I507" t="n">
         <v>8</v>
@@ -37496,10 +36500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:02:26</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44395.62668981482</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37563,10 +36565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:02:19</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44395.62660879629</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37638,10 +36638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:02:02</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44395.62641203704</v>
       </c>
       <c r="I510" t="n">
         <v>2</v>
@@ -37717,10 +36715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:02:01</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44395.62640046296</v>
       </c>
       <c r="I511" t="n">
         <v>5</v>
@@ -37796,10 +36792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:01:52</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44395.62629629629</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37878,10 +36872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:01:35</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44395.62609953704</v>
       </c>
       <c r="I513" t="n">
         <v>249</v>
@@ -37957,10 +36949,8 @@
           <t>4936622918</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:01:31</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44395.62605324074</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38021,10 +37011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:01:29</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44395.62603009259</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38092,10 +37080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:01:26</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44395.62599537037</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38167,10 +37153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:01:14</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44395.62585648148</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -38246,10 +37230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:01:06</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44395.62576388889</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38318,10 +37300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:00:58</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44395.62567129629</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38393,10 +37373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:00:56</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44395.62564814815</v>
       </c>
       <c r="I520" t="n">
         <v>2</v>
@@ -38468,10 +37446,8 @@
           <t>4936616909</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:00:48</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44395.62555555555</v>
       </c>
       <c r="I521" t="n">
         <v>7</v>
@@ -38539,10 +37515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:00:44</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44395.62550925926</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38606,10 +37580,8 @@
           <t>4936621533</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:00:44</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44395.62550925926</v>
       </c>
       <c r="I523" t="n">
         <v>28</v>
@@ -38692,10 +37664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:00:29</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44395.62533564815</v>
       </c>
       <c r="I524" t="n">
         <v>122</v>
@@ -38776,10 +37746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:00:21</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44395.62524305555</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38855,10 +37823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:00:18</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44395.62520833333</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38934,10 +37900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:00:16</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44395.62518518518</v>
       </c>
       <c r="I527" t="n">
         <v>372</v>
@@ -39005,10 +37969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:00:07</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44395.62508101852</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39076,10 +38038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:59:59</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44395.62498842592</v>
       </c>
       <c r="I529" t="n">
         <v>3</v>
@@ -39155,10 +38115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:59:51</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44395.62489583333</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39222,10 +38180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:59:35</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44395.62471064815</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39297,10 +38253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:59:35</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44395.62471064815</v>
       </c>
       <c r="I532" t="n">
         <v>15</v>
@@ -39368,10 +38322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:59:28</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44395.62462962963</v>
       </c>
       <c r="I533" t="n">
         <v>5</v>
@@ -39439,10 +38391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:59:27</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44395.62461805555</v>
       </c>
       <c r="I534" t="n">
         <v>10</v>
@@ -39512,10 +38462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:59:25</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44395.62459490741</v>
       </c>
       <c r="I535" t="n">
         <v>8</v>
@@ -39579,10 +38527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:59:16</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44395.62449074074</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39650,10 +38596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:59:09</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44395.62440972222</v>
       </c>
       <c r="I537" t="n">
         <v>118</v>
@@ -39729,10 +38673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:59:05</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44395.62436342592</v>
       </c>
       <c r="I538" t="n">
         <v>2</v>
@@ -39806,10 +38748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:58:59</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44395.62429398148</v>
       </c>
       <c r="I539" t="n">
         <v>3</v>
@@ -39873,10 +38813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:58:55</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44395.62424768518</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39944,10 +38882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:58:38</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44395.62405092592</v>
       </c>
       <c r="I541" t="n">
         <v>11</v>
@@ -40023,10 +38959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:58:29</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44395.62394675926</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -40102,10 +39036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:58:27</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44395.62392361111</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -40185,10 +39117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:58:07</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44395.62369212963</v>
       </c>
       <c r="I544" t="n">
         <v>2</v>
@@ -40256,10 +39186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:58:02</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44395.62363425926</v>
       </c>
       <c r="I545" t="n">
         <v>2</v>
@@ -40319,10 +39247,8 @@
           <t>4936598025</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:58:01</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44395.62362268518</v>
       </c>
       <c r="I546" t="n">
         <v>23</v>
@@ -40394,10 +39320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:57</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44395.62357638889</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40461,10 +39385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:54</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44395.62354166667</v>
       </c>
       <c r="I548" t="n">
         <v>1</v>
@@ -40532,10 +39454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:54</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44395.62354166667</v>
       </c>
       <c r="I549" t="n">
         <v>7</v>
@@ -40599,10 +39519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:40</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44395.62337962963</v>
       </c>
       <c r="I550" t="n">
         <v>2</v>
@@ -40670,10 +39588,8 @@
           <t>4936600976</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:38</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44395.62335648148</v>
       </c>
       <c r="I551" t="n">
         <v>41</v>
@@ -40745,10 +39661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:36</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44395.62333333334</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40816,10 +39730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:19</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44395.62313657408</v>
       </c>
       <c r="I553" t="n">
         <v>10</v>
@@ -40895,10 +39807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:19</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44395.62313657408</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40974,10 +39884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:18</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44395.623125</v>
       </c>
       <c r="I555" t="n">
         <v>1</v>
@@ -41045,10 +39953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:14</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44395.62307870371</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41120,10 +40026,8 @@
           <t>4936605072</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:13</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44395.62306712963</v>
       </c>
       <c r="I557" t="n">
         <v>40</v>
@@ -41187,10 +40091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:09</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44395.62302083334</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41254,10 +40156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:00</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44395.62291666667</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41333,10 +40233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:56:58</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44395.62289351852</v>
       </c>
       <c r="I560" t="n">
         <v>1</v>
@@ -41412,10 +40310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:56:55</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44395.6228587963</v>
       </c>
       <c r="I561" t="n">
         <v>9</v>
@@ -41483,10 +40379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:56:55</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44395.6228587963</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41562,10 +40456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:56:52</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44395.62282407407</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41629,10 +40521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:56:51</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44395.6228125</v>
       </c>
       <c r="I564" t="n">
         <v>1</v>
@@ -41708,10 +40598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:56:49</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44395.62278935185</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41787,10 +40675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:56:47</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44395.62276620371</v>
       </c>
       <c r="I566" t="n">
         <v>1</v>
@@ -41854,10 +40740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:56:46</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44395.62275462963</v>
       </c>
       <c r="I567" t="n">
         <v>652</v>
@@ -41925,10 +40809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:56:39</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44395.62267361111</v>
       </c>
       <c r="I568" t="n">
         <v>1</v>
